--- a/resources/guide.xlsx
+++ b/resources/guide.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/Projects/DAACS-Github/student-dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alui\Google Drive\DAACS\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C099DF9-6C55-4A62-8737-99E0BA1ACBC6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14660" yWindow="460" windowWidth="23740" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Domain</t>
   </si>
@@ -41,39 +42,10 @@
     <t>Fixed Mindset</t>
   </si>
   <si>
-    <t>* View mistakes as a natural part 
-of learning.
-* Remind yourself that you can improve if 
-you just keep trying.</t>
-  </si>
-  <si>
-    <t>* http://srl.daacs.net/mindset.html
-* Dweck’s TED Talk:
-https://vimeo.com/207330839</t>
-  </si>
-  <si>
     <t>Poor Time Management</t>
   </si>
   <si>
-    <t>* Set aside regular times to study
-* Prioritize tasks 
-* Use a calendar</t>
-  </si>
-  <si>
-    <t>* http://srl.daacs.net/managing_time.html</t>
-  </si>
-  <si>
     <t>Poor Environment Management</t>
-  </si>
-  <si>
-    <t>* Set rules for others in your house about 
-“do not disturb” times
-* Turn off your cell phone
-* Identify comfortable and quiet places to 
-work</t>
-  </si>
-  <si>
-    <t>* http://srl.daacs.net/managing_environment.html</t>
   </si>
   <si>
     <t>Low Self-Efficacy</t>
@@ -96,120 +68,183 @@
 you do well in school.</t>
   </si>
   <si>
-    <t>* Watch the video at: http://srl.daacs.net/self-efficacy.html</t>
-  </si>
-  <si>
     <t>* Study over several short study sessions
 * Use practice quizzes or tests 
 * Use concept maps or make summaries.</t>
   </si>
   <si>
-    <t>* http://srl.daacs.net/understanding.html'</t>
-  </si>
-  <si>
-    <t>* Identify your area of weakness with 
-regard to planning, monitoring, 
-and evaluation</t>
-  </si>
-  <si>
-    <t>* Watch the video at: http://srl.daacs.net/metacognition.html</t>
+    <t>Challenge</t>
+  </si>
+  <si>
+    <t>mindset</t>
+  </si>
+  <si>
+    <t>managing_time</t>
+  </si>
+  <si>
+    <t>managing_environment</t>
+  </si>
+  <si>
+    <t>self_efficacy</t>
+  </si>
+  <si>
+    <t>mastery_orientation</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>understanding</t>
+  </si>
+  <si>
+    <t>planning</t>
+  </si>
+  <si>
+    <t>monitoring</t>
+  </si>
+  <si>
+    <t>evaluation</t>
+  </si>
+  <si>
+    <t>Infrequent Metacognition (Planning)</t>
+  </si>
+  <si>
+    <t>Infrequent Metacognition (Monitoring)</t>
+  </si>
+  <si>
+    <t>Infrequent Metacognition (Evaluation)</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Growth Mindset</t>
+  </si>
+  <si>
+    <t>Good Time Management</t>
+  </si>
+  <si>
+    <t>Good Environment Management</t>
+  </si>
+  <si>
+    <t>High Self-Efficacy</t>
+  </si>
+  <si>
+    <t>Good Strategies for Understanding</t>
+  </si>
+  <si>
+    <t>Frequent Metacognition (Planning)</t>
+  </si>
+  <si>
+    <t>Frequent Metacognition (Monitoring)</t>
+  </si>
+  <si>
+    <t>Frequent Metacongition (Evaluation)</t>
+  </si>
+  <si>
+    <t>Low Anxiety</t>
+  </si>
+  <si>
+    <t>* https://srl.daacs.net/motivation/mindset/
+* Dweck’s TED Talk:
+https://vimeo.com/207330839</t>
+  </si>
+  <si>
+    <t>* http://srl.daacs.net/learning-strategies/managing-time/</t>
+  </si>
+  <si>
+    <t>* http://srl.daacs.net/learning-strategies/managing-environment.html</t>
+  </si>
+  <si>
+    <t>* http://srl.daacs.net/learning-strategies/understanding.html'</t>
+  </si>
+  <si>
+    <t>* Watch the video at: https://srl.daacs.net/metacognition/plan/how-often-do-you-plan/</t>
+  </si>
+  <si>
+    <t>* Watch the video at: https://srl.daacs.net/metacognition/monitor/how-often-do-you-monitor/</t>
+  </si>
+  <si>
+    <t>* Watch the video at: https://srl.daacs.net/metacognition/evaluate/how-often-do-you-evaluate/</t>
+  </si>
+  <si>
+    <t>* https://srl.daacs.net/motivation/anxiety-levels/
+* Anxiety &amp; Depression Association of America: https://www.adaa.org/living-with-anxiety/children/test-anxiety</t>
+  </si>
+  <si>
+    <t>https://srl.daacs.net/motivation/mastery-orientation/</t>
+  </si>
+  <si>
+    <t>* Watch the video at: https://srl.daacs.net/motivation/self-efficacy/</t>
+  </si>
+  <si>
+    <t>*https://srl.daacs.net/learning-strategies/help-seeking/</t>
+  </si>
+  <si>
+    <t>* Identify the best sources of answers to your questions (Advisor? Instructor? Peer?)
+* Identify and write down the specific areas that give you trouble
+* Send an email, make a phonecall - reach out!</t>
+  </si>
+  <si>
+    <t>Infrequent Help-Seeking</t>
+  </si>
+  <si>
+    <t>Frequent Help-Seeking</t>
+  </si>
+  <si>
+    <t>help_seeking</t>
+  </si>
+  <si>
+    <t>* Set rules for others in your house about 
+“do not disturb” times
+* Turn off your cell phone or leave it in another room
+* Identify comfortable and quiet places to 
+work</t>
+  </si>
+  <si>
+    <t>* Here are some questions to ask yourself as you plan for an assignment:
+** How can I organize myself and my materials?
+** What do I already know, and what would I like to learn?
+** How much time do I have? How much time do I need?</t>
+  </si>
+  <si>
+    <t>* Here are some questions to ask yourself after you have completed an assignment:
+** What did I learn?
+** How well did I accomplish the goals of the assignment?
+** What should I do next teim?</t>
   </si>
   <si>
     <t>* Use relaxation techniques
-* Say positive things to yourself
+* Practice positive self-talk and challenge negative thoughts
 * Create schedules and plan study times</t>
   </si>
   <si>
-    <t>* http://srl.daacs.net/anxiety.html
-* Anxiety &amp; Depression Association of America: https://www.adaa.org/living-with-anxiety/children/test-anxiety</t>
-  </si>
-  <si>
-    <t>* Don't worry about how others perform
-* Focus on your improvement and 
-progress rather than a single grade.
+    <t>* Focus on your individual progress. If you must make comparisons, compare where you are today to where you were last week, or last semester.
+* Make learning relevant. Make connections between the course or assignment and your career, goals, or your life.
 * View mistakes and errors as opportunities 
 to improve.</t>
   </si>
   <si>
-    <t>http://srl.daacs.net/mastery_orientation.html</t>
-  </si>
-  <si>
-    <t>Challenge</t>
-  </si>
-  <si>
-    <t>mindset</t>
-  </si>
-  <si>
-    <t>managing_time</t>
-  </si>
-  <si>
-    <t>managing_environment</t>
-  </si>
-  <si>
-    <t>self_efficacy</t>
-  </si>
-  <si>
-    <t>mastery_orientation</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>understanding</t>
-  </si>
-  <si>
-    <t>planning</t>
-  </si>
-  <si>
-    <t>monitoring</t>
-  </si>
-  <si>
-    <t>evaluation</t>
-  </si>
-  <si>
-    <t>Infrequent Metacognition (Planning)</t>
-  </si>
-  <si>
-    <t>Infrequent Metacognition (Monitoring)</t>
-  </si>
-  <si>
-    <t>Infrequent Metacognition (Evaluation)</t>
-  </si>
-  <si>
-    <t>Strength</t>
-  </si>
-  <si>
-    <t>Growth Mindset</t>
-  </si>
-  <si>
-    <t>Good Time Management</t>
-  </si>
-  <si>
-    <t>Good Environment Management</t>
-  </si>
-  <si>
-    <t>High Self-Efficacy</t>
-  </si>
-  <si>
-    <t>Good Strategies for Understanding</t>
-  </si>
-  <si>
-    <t>Frequent Metacognition (Planning)</t>
-  </si>
-  <si>
-    <t>Frequent Metacognition (Monitoring)</t>
-  </si>
-  <si>
-    <t>Frequent Metacongition (Evaluation)</t>
-  </si>
-  <si>
-    <t>Low Anxiety</t>
+    <t>* View mistakes as a natural part 
+of learning.
+* Embrace challenges, and ask for help when you are stuck</t>
+  </si>
+  <si>
+    <t>* Set aside regular times to study
+* Make a checklist and prioritize tasks
+* Use a calendar to keep track of deadlines</t>
+  </si>
+  <si>
+    <t>* Here are some questions to ask yourself while completing an assignment:
+** Am I meeting my learning goals? 
+** What strategies am I using and how are they working for me?
+** What other resources can I use to complete the assignment?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -252,20 +287,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -273,6 +311,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -540,31 +581,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.83203125" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" customWidth="1"/>
+    <col min="4" max="4" width="53.25" customWidth="1"/>
+    <col min="5" max="5" width="48.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -573,177 +614,197 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{40F77747-D0B0-4FB6-BF60-1264AC72ECB9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/guide.xlsx
+++ b/resources/guide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alui\Google Drive\DAACS\Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/Projects/DAACS-Github/DAACS-Dashboard/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C099DF9-6C55-4A62-8737-99E0BA1ACBC6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D6C488-07BB-2743-9633-892A94B7E4D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,16 +63,6 @@
     <t>Performance Orienation</t>
   </si>
   <si>
-    <t>* Use positive self-talk
-* Remind yourself of all of the things that 
-you do well in school.</t>
-  </si>
-  <si>
-    <t>* Study over several short study sessions
-* Use practice quizzes or tests 
-* Use concept maps or make summaries.</t>
-  </si>
-  <si>
     <t>Challenge</t>
   </si>
   <si>
@@ -145,47 +135,6 @@
     <t>Low Anxiety</t>
   </si>
   <si>
-    <t>* https://srl.daacs.net/motivation/mindset/
-* Dweck’s TED Talk:
-https://vimeo.com/207330839</t>
-  </si>
-  <si>
-    <t>* http://srl.daacs.net/learning-strategies/managing-time/</t>
-  </si>
-  <si>
-    <t>* http://srl.daacs.net/learning-strategies/managing-environment.html</t>
-  </si>
-  <si>
-    <t>* http://srl.daacs.net/learning-strategies/understanding.html'</t>
-  </si>
-  <si>
-    <t>* Watch the video at: https://srl.daacs.net/metacognition/plan/how-often-do-you-plan/</t>
-  </si>
-  <si>
-    <t>* Watch the video at: https://srl.daacs.net/metacognition/monitor/how-often-do-you-monitor/</t>
-  </si>
-  <si>
-    <t>* Watch the video at: https://srl.daacs.net/metacognition/evaluate/how-often-do-you-evaluate/</t>
-  </si>
-  <si>
-    <t>* https://srl.daacs.net/motivation/anxiety-levels/
-* Anxiety &amp; Depression Association of America: https://www.adaa.org/living-with-anxiety/children/test-anxiety</t>
-  </si>
-  <si>
-    <t>https://srl.daacs.net/motivation/mastery-orientation/</t>
-  </si>
-  <si>
-    <t>* Watch the video at: https://srl.daacs.net/motivation/self-efficacy/</t>
-  </si>
-  <si>
-    <t>*https://srl.daacs.net/learning-strategies/help-seeking/</t>
-  </si>
-  <si>
-    <t>* Identify the best sources of answers to your questions (Advisor? Instructor? Peer?)
-* Identify and write down the specific areas that give you trouble
-* Send an email, make a phonecall - reach out!</t>
-  </si>
-  <si>
     <t>Infrequent Help-Seeking</t>
   </si>
   <si>
@@ -195,50 +144,112 @@
     <t>help_seeking</t>
   </si>
   <si>
-    <t>* Set rules for others in your house about 
-“do not disturb” times
-* Turn off your cell phone or leave it in another room
-* Identify comfortable and quiet places to 
-work</t>
-  </si>
-  <si>
-    <t>* Here are some questions to ask yourself as you plan for an assignment:
-** How can I organize myself and my materials?
-** What do I already know, and what would I like to learn?
-** How much time do I have? How much time do I need?</t>
-  </si>
-  <si>
-    <t>* Here are some questions to ask yourself after you have completed an assignment:
-** What did I learn?
-** How well did I accomplish the goals of the assignment?
-** What should I do next teim?</t>
-  </si>
-  <si>
-    <t>* Use relaxation techniques
-* Practice positive self-talk and challenge negative thoughts
-* Create schedules and plan study times</t>
-  </si>
-  <si>
-    <t>* Focus on your individual progress. If you must make comparisons, compare where you are today to where you were last week, or last semester.
-* Make learning relevant. Make connections between the course or assignment and your career, goals, or your life.
-* View mistakes and errors as opportunities 
-to improve.</t>
-  </si>
-  <si>
-    <t>* View mistakes as a natural part 
-of learning.
-* Embrace challenges, and ask for help when you are stuck</t>
-  </si>
-  <si>
-    <t>* Set aside regular times to study
-* Make a checklist and prioritize tasks
-* Use a calendar to keep track of deadlines</t>
-  </si>
-  <si>
-    <t>* Here are some questions to ask yourself while completing an assignment:
-** Am I meeting my learning goals? 
-** What strategies am I using and how are they working for me?
-** What other resources can I use to complete the assignment?</t>
+    <t xml:space="preserve">Here are some questions to ask yourself as you plan for an assignment:
+&lt;ul&gt;
+&lt;li&gt;How can I organize myself and my materials?&lt;/li&gt;
+&lt;li&gt;What do I already know, and what would I like to learn?&lt;/li&gt;
+&lt;li&gt;How much time do I have? How much time do I need?&lt;/li&gt;
+&lt;/ul&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;View mistakes as a natural part of learning.&lt;/li&gt;
+&lt;li&gt;Embrace challenges, and ask for help when you are stuck&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Set aside regular times to study&lt;/li&gt;
+&lt;li&gt;Make a checklist and prioritize tasks&lt;/li&gt;
+&lt;li&gt;Use a calendar to keep track of deadlines&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Set rules for others in your house about "do not disturb" times&lt;/li&gt;
+&lt;li&gt;Turn off your cell phone or leave it in another room&lt;/li&gt;
+&lt;li&gt;Identify comfortable and quiet places to work&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Use positive self-talk&lt;/li&gt;
+&lt;li&gt;Remind yourself of all of the things that you do well in school.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Study over several short study sessions&lt;/li&gt;
+&lt;li&gt;Use practice quizzes or tests &lt;/li&gt;
+&lt;li&gt;Use concept maps or make summaries&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Here are some questions to ask yourself while completing an assignment:
+&lt;ul&gt;&lt;li&gt;Am I meeting my learning goals? &lt;/li&gt;
+&lt;li&gt;What strategies am I using and how are they working for me?&lt;/li&gt;
+&lt;li&gt;What other resources can I use to complete the assignment?&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Here are some questions to ask yourself after you have completed an assignment:
+&lt;ul&gt;&lt;li&gt;What did I learn?&lt;/li&gt;
+&lt;li&gt;How well did I accomplish the goals of the assignment?&lt;/li&gt;
+&lt;li&gt;What should I do next teim?&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Use relaxation techniques&lt;/li&gt;
+&lt;li&gt;Practice positive self-talk and challenge negative thoughts&lt;/li&gt;
+&lt;li&gt;Create schedules and plan study times&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Focus on your individual progress. If you must make comparisons, compare where you are today to where you were last week, or last semester.&lt;/li&gt;
+&lt;li&gt;Make learning relevant. Make connections between the course or assignment and your career, goals, or your life.&lt;/li&gt;
+&lt;li&gt;View mistakes and errors as opportunities to improve.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Identify the best sources of answers to your questions (Advisor? Instructor? Peer?)&lt;/li&gt;
+&lt;li&gt;Identify and write down the specific areas that give you trouble&lt;/li&gt;
+&lt;li&gt;Send an email, make a phonecall - reach out!&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+&lt;li&gt;&lt;a href='https://srl.daacs.net/motivation/mindset/' target='_new'&gt;https://srl.daacs.net/motivation/mindset/&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;Dweck’s TED Talk: &lt;a href='https://vimeo.com/207330839' target='_new'&gt;https://vimeo.com/207330839&lt;/a&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='http://srl.daacs.net/learning-strategies/managing-time/' target='_new'&gt;http://srl.daacs.net/learning-strategies/managing-time/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://srl.daacs.net/learning-strategies/environment-management/' target='_new'&gt;https://srl.daacs.net/learning-strategies/environment-management/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Watch the video at: &lt;a href='https://srl.daacs.net/motivation/self-efficacy/' target='_new'&gt;https://srl.daacs.net/motivation/self-efficacy/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://srl.daacs.net/learning-strategies/learning-tactics/' target='_new'&gt;https://srl.daacs.net/learning-strategies/learning-tactics/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Watch the video at: &lt;a href='https://srl.daacs.net/metacognition/plan/how-often-do-you-plan/' target='_new'&gt;https://srl.daacs.net/metacognition/plan/how-often-do-you-plan/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Watch the video at: &lt;href = 'https://srl.daacs.net/metacognition/monitor/how-often-do-you-monitor/' target='_new'&gt;https://srl.daacs.net/metacognition/monitor/how-often-do-you-monitor/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Watch the video at: &lt;a href='https://srl.daacs.net/metacognition/evaluate/how-often-do-you-evaluate/' target='_new'&gt;https://srl.daacs.net/metacognition/evaluate/how-often-do-you-evaluate/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+&lt;li&gt;&lt;a href='https://srl.daacs.net/motivation/anxiety-levels/' target='_new'&gt;https://srl.daacs.net/motivation/anxiety-levels/&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;Anxiety &amp; Depression Association of America: &lt;a href='https://www.adaa.org/living-with-anxiety/children/test-anxiety' target='_new'&gt;https://www.adaa.org/living-with-anxiety/children/test-anxiety&lt;/a&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://srl.daacs.net/motivation/mastery-orientation/' target='_new'&gt;https://srl.daacs.net/motivation/mastery-orientation/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://srl.daacs.net/learning-strategies/help-seeking/' target='_new'&gt;https://srl.daacs.net/learning-strategies/help-seeking/&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -293,12 +304,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -584,28 +598,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.25" customWidth="1"/>
-    <col min="5" max="5" width="48.125" customWidth="1"/>
+    <col min="4" max="4" width="53.1640625" customWidth="1"/>
+    <col min="5" max="5" width="48.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -614,162 +628,162 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="187" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -778,32 +792,35 @@
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>47</v>
+      <c r="E12" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" xr:uid="{40F77747-D0B0-4FB6-BF60-1264AC72ECB9}"/>
+    <hyperlink ref="E11" r:id="rId1" display="https://srl.daacs.net/motivation/mastery-orientation/" xr:uid="{40F77747-D0B0-4FB6-BF60-1264AC72ECB9}"/>
+    <hyperlink ref="E4" r:id="rId2" display="https://srl.daacs.net/learning-strategies/environment-management/" xr:uid="{19506FC6-E0B1-4647-9B2B-40D9943EF4D0}"/>
+    <hyperlink ref="E12" r:id="rId3" display="https://srl.daacs.net/learning-strategies/help-seeking/" xr:uid="{370F478D-796A-5242-A1B2-2E2360451B36}"/>
+    <hyperlink ref="E3" r:id="rId4" display="http://srl.daacs.net/learning-strategies/managing-time/" xr:uid="{855C4C76-820A-1D4E-AD6D-0BBF0BC9510D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/guide.xlsx
+++ b/resources/guide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/Projects/DAACS-Github/DAACS-Dashboard/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alui\Google Drive\DAACS\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D6C488-07BB-2743-9633-892A94B7E4D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7279C974-150D-40F2-8C0B-EFA7DDB65ABA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -214,42 +214,42 @@
   </si>
   <si>
     <t>&lt;ul&gt;
-&lt;li&gt;&lt;a href='https://srl.daacs.net/motivation/mindset/' target='_new'&gt;https://srl.daacs.net/motivation/mindset/&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href='https://srl.daacs.net/motivation/mindset/improve-your-mindset/' target='_new'&gt;https://srl.daacs.net/motivation/mindset/improve-your-mindset/&lt;/a&gt;&lt;/li&gt;
 &lt;li&gt;Dweck’s TED Talk: &lt;a href='https://vimeo.com/207330839' target='_new'&gt;https://vimeo.com/207330839&lt;/a&gt;&lt;/li&gt;
 &lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;a href='http://srl.daacs.net/learning-strategies/managing-time/' target='_new'&gt;http://srl.daacs.net/learning-strategies/managing-time/&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://srl.daacs.net/learning-strategies/environment-management/' target='_new'&gt;https://srl.daacs.net/learning-strategies/environment-management/&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Watch the video at: &lt;a href='https://srl.daacs.net/motivation/self-efficacy/' target='_new'&gt;https://srl.daacs.net/motivation/self-efficacy/&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://srl.daacs.net/learning-strategies/learning-tactics/' target='_new'&gt;https://srl.daacs.net/learning-strategies/learning-tactics/&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Watch the video at: &lt;a href='https://srl.daacs.net/metacognition/plan/how-often-do-you-plan/' target='_new'&gt;https://srl.daacs.net/metacognition/plan/how-often-do-you-plan/&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Watch the video at: &lt;href = 'https://srl.daacs.net/metacognition/monitor/how-often-do-you-monitor/' target='_new'&gt;https://srl.daacs.net/metacognition/monitor/how-often-do-you-monitor/&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Watch the video at: &lt;a href='https://srl.daacs.net/metacognition/evaluate/how-often-do-you-evaluate/' target='_new'&gt;https://srl.daacs.net/metacognition/evaluate/how-often-do-you-evaluate/&lt;/a&gt;</t>
+    <t>&lt;a href='https://srl.daacs.net/learning-strategies/time-management/improve-your-time-management/' target='_new'&gt;https://srl.daacs.net/learning-strategies/time-management/improve-your-time-management/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://srl.daacs.net/learning-strategies/environment-management/improve-your-environment-management/' target='_new'&gt;https://srl.daacs.net/learning-strategies/environment-management/improve-your-environment-management/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href=https://srl.daacs.net/motivation/self-efficacy/improve-your-self-efficacy/' target='_new'&gt;https://srl.daacs.net/motivation/self-efficacy/improve-your-self-efficacy/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://srl.daacs.net/learning-strategies/learning-tactics/improve-your-learning-tactics/' target='_new'&gt;https://srl.daacs.net/learning-strategies/learning-tactics/improve-your-learning-tactics/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://srl.daacs.net/metacognition/plan/how-to-improve-your-planning/' target='_new'&gt;https://srl.daacs.net/metacognition/plan/how-to-improve-your-planning/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;href = 'https://srl.daacs.net/metacognition/monitor/how-to-improve-your-monitoring/' target='_new'&gt;https://srl.daacs.net/metacognition/monitor/how-to-improve-your-monitoring/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://srl.daacs.net/metacognition/evaluate/how-to-improve-your-evaluating/' target='_new'&gt;https://srl.daacs.net/metacognition/evaluate/how-to-improve-your-evaluating/&lt;/a&gt;</t>
   </si>
   <si>
     <t>&lt;ul&gt;
-&lt;li&gt;&lt;a href='https://srl.daacs.net/motivation/anxiety-levels/' target='_new'&gt;https://srl.daacs.net/motivation/anxiety-levels/&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href='https://srl.daacs.net/motivation/anxiety-levels/reduce-anxiety-levels/' target='_new'&gt;https://srl.daacs.net/motivation/anxiety-levels/reduce-anxiety-levels/&lt;/a&gt;&lt;/li&gt;
 &lt;li&gt;Anxiety &amp; Depression Association of America: &lt;a href='https://www.adaa.org/living-with-anxiety/children/test-anxiety' target='_new'&gt;https://www.adaa.org/living-with-anxiety/children/test-anxiety&lt;/a&gt;&lt;/li&gt;
 &lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;a href='https://srl.daacs.net/motivation/mastery-orientation/' target='_new'&gt;https://srl.daacs.net/motivation/mastery-orientation/&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='https://srl.daacs.net/learning-strategies/help-seeking/' target='_new'&gt;https://srl.daacs.net/learning-strategies/help-seeking/&lt;/a&gt;</t>
+    <t>&lt;a href='https://srl.daacs.net/motivation/mastery-orientation/improve-your-mastery-orientation/' target='_new'&gt;https://srl.daacs.net/motivation/mastery-orientation/improve-your-mastery-orientation/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href=https://srl.daacs.net/learning-strategies/help-seeking/improve-your-help-seeking/' target='_new'&gt;https://srl.daacs.net/learning-strategies/help-seeking/improve-your-help-seeking/&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -304,12 +304,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -598,20 +597,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.1640625" customWidth="1"/>
-    <col min="5" max="5" width="48.1640625" customWidth="1"/>
+    <col min="4" max="4" width="53.125" customWidth="1"/>
+    <col min="5" max="5" width="99.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -624,11 +623,11 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -645,7 +644,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -662,7 +661,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -679,7 +678,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -692,11 +691,11 @@
       <c r="D5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -713,7 +712,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -730,7 +729,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="126" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -747,7 +746,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -764,7 +763,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="187" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -781,7 +780,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -798,7 +797,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -811,7 +810,7 @@
       <c r="D12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -823,5 +822,6 @@
     <hyperlink ref="E3" r:id="rId4" display="http://srl.daacs.net/learning-strategies/managing-time/" xr:uid="{855C4C76-820A-1D4E-AD6D-0BBF0BC9510D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId5"/>
 </worksheet>
 </file>
--- a/resources/guide.xlsx
+++ b/resources/guide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alui\Google Drive\DAACS\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7279C974-150D-40F2-8C0B-EFA7DDB65ABA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A040FDC2-E1A9-4CFE-B297-5F84F151A62B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,15 +144,6 @@
     <t>help_seeking</t>
   </si>
   <si>
-    <t xml:space="preserve">Here are some questions to ask yourself as you plan for an assignment:
-&lt;ul&gt;
-&lt;li&gt;How can I organize myself and my materials?&lt;/li&gt;
-&lt;li&gt;What do I already know, and what would I like to learn?&lt;/li&gt;
-&lt;li&gt;How much time do I have? How much time do I need?&lt;/li&gt;
-&lt;/ul&gt;
-</t>
-  </si>
-  <si>
     <t>&lt;ul&gt;&lt;li&gt;View mistakes as a natural part of learning.&lt;/li&gt;
 &lt;li&gt;Embrace challenges, and ask for help when you are stuck&lt;/li&gt;
 &lt;/ul&gt;</t>
@@ -164,12 +155,6 @@
 &lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;Set rules for others in your house about "do not disturb" times&lt;/li&gt;
-&lt;li&gt;Turn off your cell phone or leave it in another room&lt;/li&gt;
-&lt;li&gt;Identify comfortable and quiet places to work&lt;/li&gt;
-&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>&lt;ul&gt;&lt;li&gt;Use positive self-talk&lt;/li&gt;
 &lt;li&gt;Remind yourself of all of the things that you do well in school.&lt;/li&gt;
 &lt;/ul&gt;</t>
@@ -181,38 +166,12 @@
 &lt;/ul&gt;</t>
   </si>
   <si>
-    <t>Here are some questions to ask yourself while completing an assignment:
-&lt;ul&gt;&lt;li&gt;Am I meeting my learning goals? &lt;/li&gt;
-&lt;li&gt;What strategies am I using and how are they working for me?&lt;/li&gt;
-&lt;li&gt;What other resources can I use to complete the assignment?&lt;/li&gt;
-&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Here are some questions to ask yourself after you have completed an assignment:
-&lt;ul&gt;&lt;li&gt;What did I learn?&lt;/li&gt;
-&lt;li&gt;How well did I accomplish the goals of the assignment?&lt;/li&gt;
-&lt;li&gt;What should I do next teim?&lt;/li&gt;
-&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>&lt;ul&gt;&lt;li&gt;Use relaxation techniques&lt;/li&gt;
 &lt;li&gt;Practice positive self-talk and challenge negative thoughts&lt;/li&gt;
 &lt;li&gt;Create schedules and plan study times&lt;/li&gt;
 &lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;Focus on your individual progress. If you must make comparisons, compare where you are today to where you were last week, or last semester.&lt;/li&gt;
-&lt;li&gt;Make learning relevant. Make connections between the course or assignment and your career, goals, or your life.&lt;/li&gt;
-&lt;li&gt;View mistakes and errors as opportunities to improve.&lt;/li&gt;
-&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Identify the best sources of answers to your questions (Advisor? Instructor? Peer?)&lt;/li&gt;
-&lt;li&gt;Identify and write down the specific areas that give you trouble&lt;/li&gt;
-&lt;li&gt;Send an email, make a phonecall - reach out!&lt;/li&gt;
-&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>&lt;ul&gt;
 &lt;li&gt;&lt;a href='https://srl.daacs.net/motivation/mindset/improve-your-mindset/' target='_new'&gt;https://srl.daacs.net/motivation/mindset/improve-your-mindset/&lt;/a&gt;&lt;/li&gt;
 &lt;li&gt;Dweck’s TED Talk: &lt;a href='https://vimeo.com/207330839' target='_new'&gt;https://vimeo.com/207330839&lt;/a&gt;&lt;/li&gt;
@@ -250,6 +209,46 @@
   </si>
   <si>
     <t>&lt;a href=https://srl.daacs.net/learning-strategies/help-seeking/improve-your-help-seeking/' target='_new'&gt;https://srl.daacs.net/learning-strategies/help-seeking/improve-your-help-seeking/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Offer these strategies to your students to help them improve on their monitoring habits:
+&lt;ul&gt;&lt;li&gt;Ask yourself these questions while you listen to lectures, read texts, and watch videos: "Am I learning the material? Is anything getting in the way of my learning?" &lt;/li&gt;
+&lt;li&gt;Make two lists: One list of tasks that you do well, and another of tasks with which you struggle. Click on More Info for recommendations for dealing with the tasks on the second list.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Here are a few strategies to suggest to your students, to help them become skillful self-evaluators:
+&lt;ul&gt;&lt;li&gt;As you work on an assignment, ask yourself "Am I learning what I am supposed to?"&lt;/li&gt;
+&lt;li&gt;After you complete an assignment, ask yourself, "What was the most important thing I learned?" and "What can I do better next time?"&lt;/li&gt;
+&lt;li&gt;Keep a list of learning strategies that seem to work best for you.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Identify and write down the specific things that give you trouble, and ask your advisor for suggestions for getting assistance.&lt;/li&gt;
+&lt;li&gt;At the start of a course, ask your teacher and advisor about the best way to contact them (e.g., office hours, email, course website, phone call).&lt;/li&gt;
+&lt;li&gt;Advocate for yourself -- be persistent if your first attempt to get help is not successful.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Set rules for others in your house about "do not disturb" times&lt;/li&gt;
+&lt;li&gt;Turn off your cell phone and other technology.&lt;/li&gt;
+&lt;li&gt;Identify comfortable and quiet places to work&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Don't worry about how others perform; focus on your own growth and learning.&lt;/li&gt;
+&lt;li&gt;Focus on your improvement and progress rather than a single grade.&lt;/li&gt;
+&lt;li&gt;View mistakes and errors as opportunities to improve.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offer these suggestions to students to help them become a more effective planner:
+&lt;ul&gt;
+&lt;li&gt;Ask yourself questions before you begin a learning activity: "What am I expected do? What approach to this work can help me do well?"&lt;/li&gt;
+&lt;li&gt;Brainstorm multiple ways to approach an activity and then choose the best option.&lt;/li&gt;
+&lt;li&gt;Ask your teachers questions about tasks and new material.&lt;/li&gt;
+&lt;/ul&gt;
+</t>
   </si>
 </sst>
 </file>
@@ -597,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -638,10 +637,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="63" x14ac:dyDescent="0.25">
@@ -655,10 +654,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
@@ -672,10 +671,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="63" x14ac:dyDescent="0.25">
@@ -689,10 +688,10 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="63" x14ac:dyDescent="0.25">
@@ -706,13 +705,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="141.75" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="189" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -723,13 +722,13 @@
         <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -740,13 +739,13 @@
         <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -757,10 +756,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
@@ -774,13 +773,13 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -791,13 +790,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -808,10 +807,10 @@
         <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
